--- a/biology/Médecine/Circoncision_à_Madagascar/Circoncision_à_Madagascar.xlsx
+++ b/biology/Médecine/Circoncision_à_Madagascar/Circoncision_à_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Circoncision_%C3%A0_Madagascar</t>
+          <t>Circoncision_à_Madagascar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La circoncision est une pratique initiatique traditionnelle encore en vigueur à Madagascar et qui prend différentes formes selon les régions. Dans les Hauts-Plateaux, en Imerina, elle se pratique en hiver, c'est-à-dire entre mai et août, de manière individuelle. Elle est appelée famorana ou didimpoitra[1]. Dans le sud de l'île, elle se déroule de manière collective et se dénomme sambatra chez les Antambahoaka du Sud-Est et savatse chez les Ambolavaha du Sud-Ouest. Le sambatra, qui a lieu tous les sept ans, donne lieu à des réjouissances pouvant durer un mois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La circoncision est une pratique initiatique traditionnelle encore en vigueur à Madagascar et qui prend différentes formes selon les régions. Dans les Hauts-Plateaux, en Imerina, elle se pratique en hiver, c'est-à-dire entre mai et août, de manière individuelle. Elle est appelée famorana ou didimpoitra. Dans le sud de l'île, elle se déroule de manière collective et se dénomme sambatra chez les Antambahoaka du Sud-Est et savatse chez les Ambolavaha du Sud-Ouest. Le sambatra, qui a lieu tous les sept ans, donne lieu à des réjouissances pouvant durer un mois.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Circoncision_%C3%A0_Madagascar</t>
+          <t>Circoncision_à_Madagascar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Signification symbolique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La circoncision persiste mais tend à perdre de son symbolisme originel et à se réduire en une simple coutume[2]. Au-delà de la diversité de ses manifestations, elle symbolise la puissance sexuelle, associée à la fécondité[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La circoncision persiste mais tend à perdre de son symbolisme originel et à se réduire en une simple coutume. Au-delà de la diversité de ses manifestations, elle symbolise la puissance sexuelle, associée à la fécondité.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Circoncision_%C3%A0_Madagascar</t>
+          <t>Circoncision_à_Madagascar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Déroulement du rituel en Imerina</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première sortie publique du bébé s'effectue une huitaine de jours après sa naissance, qui ne possède pas encore de nom. Après  trois à cinq mois, un premier rituel consiste à effectuer la première coupe de cheveux aux enfants, qu'on appelle ala volon-jaza littéralement « enlèvement de cheveux autour d'un grand repas ». Les filles sont alors pleinement intégrées à l'humanité mais les garçons doivent être circoncis pour cela[4]. 
-La cérémonie de la circoncision proprement dite se déroule traditionnellement pendant l'hiver, une case étant dévolue à l'opération proprement dite[5]. Toute la famille participe à sa préparation (matériel et condiments symboliques, comme le sucre et la banane). Au crépuscule, tous les mâles de la famille prennent le « rano mahery » ou eau sacrée recueillie par le passé au pied d'une montagne par un homme fort qui ne devait pas être orphelin. Cette eau sert au « rain-jaza », le circonciseur[6], pour laver les mains, la plaie de l'enfant et le couteau.
-Le prépuce est mangé entre deux rondelles de banane par le père ou un oncle, dans l’espoir d'avoir une descendance masculine. Cette pratique, antérieure au XVIe siècle et au règne de Rafohy d'Imerimanjaka, prend désormais une forme simplifiée, tant par le matériel utilisé que dans son déroulement, un médecin remplaçant par exemple le circonciseur[7]. Elle tend à perdre sa dimension sacrée et sa fonction de rite de passage[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première sortie publique du bébé s'effectue une huitaine de jours après sa naissance, qui ne possède pas encore de nom. Après  trois à cinq mois, un premier rituel consiste à effectuer la première coupe de cheveux aux enfants, qu'on appelle ala volon-jaza littéralement « enlèvement de cheveux autour d'un grand repas ». Les filles sont alors pleinement intégrées à l'humanité mais les garçons doivent être circoncis pour cela. 
+La cérémonie de la circoncision proprement dite se déroule traditionnellement pendant l'hiver, une case étant dévolue à l'opération proprement dite. Toute la famille participe à sa préparation (matériel et condiments symboliques, comme le sucre et la banane). Au crépuscule, tous les mâles de la famille prennent le « rano mahery » ou eau sacrée recueillie par le passé au pied d'une montagne par un homme fort qui ne devait pas être orphelin. Cette eau sert au « rain-jaza », le circonciseur, pour laver les mains, la plaie de l'enfant et le couteau.
+Le prépuce est mangé entre deux rondelles de banane par le père ou un oncle, dans l’espoir d'avoir une descendance masculine. Cette pratique, antérieure au XVIe siècle et au règne de Rafohy d'Imerimanjaka, prend désormais une forme simplifiée, tant par le matériel utilisé que dans son déroulement, un médecin remplaçant par exemple le circonciseur. Elle tend à perdre sa dimension sacrée et sa fonction de rite de passage.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Circoncision_%C3%A0_Madagascar</t>
+          <t>Circoncision_à_Madagascar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Sambatra</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour les Antambahoaka la circoncision, ou sambatra, se déroule de manière collective tous les 7 ans, donnant lieu à de grandes réjouissances[9]. Encore pratiquée au début du XXIe siècle, les petits garçons nés durant cet intervalle septennal se voient consacrés homme par le roi[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les Antambahoaka la circoncision, ou sambatra, se déroule de manière collective tous les 7 ans, donnant lieu à de grandes réjouissances. Encore pratiquée au début du XXIe siècle, les petits garçons nés durant cet intervalle septennal se voient consacrés homme par le roi.
 </t>
         </is>
       </c>
